--- a/Work_In_Progress/DJ/Data Dictionary.xlsx
+++ b/Work_In_Progress/DJ/Data Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="639" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="639" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -47,48 +47,18 @@
     <t>NA</t>
   </si>
   <si>
-    <t>User Interface to set Simluation Parameters</t>
-  </si>
-  <si>
-    <t>User Interface</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
     <t>Orders</t>
   </si>
   <si>
-    <t>Tote Sender</t>
-  </si>
-  <si>
     <t>Seconds</t>
   </si>
   <si>
     <t>Data Items Included</t>
   </si>
   <si>
-    <t>Workers, Hourly Wage, Item Distribution</t>
-  </si>
-  <si>
-    <t>Item Number, Arm Number</t>
-  </si>
-  <si>
-    <t>Order Number, Category Number</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Tote Class, Order</t>
-  </si>
-  <si>
-    <t>Worker Number, Worker Hourly Rate</t>
-  </si>
-  <si>
-    <t>Seconds, Ticks</t>
-  </si>
-  <si>
     <t>Represents</t>
   </si>
   <si>
@@ -143,24 +113,6 @@
     <t>Item Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Data Collection/Analysis, Loading Zone, Picking Station, Simulation Results </t>
-  </si>
-  <si>
-    <t>Analysis, Output File, User</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tote Movement/Traversal, Tote Sender</t>
-  </si>
-  <si>
-    <t>Item Categorizer, Picking Stations, Tote Sender, Workers</t>
-  </si>
-  <si>
-    <t>Decision Point, Loading Station, Picking Station, Tote Sender</t>
-  </si>
-  <si>
-    <t>Decision Points, Tote Sender</t>
-  </si>
-  <si>
     <t>1. Ring Up Customer</t>
   </si>
   <si>
@@ -362,9 +314,6 @@
     <t>Low Threshold</t>
   </si>
   <si>
-    <t>Quantity Held</t>
-  </si>
-  <si>
     <t>AccuStockSense</t>
   </si>
   <si>
@@ -407,18 +356,12 @@
     <t>The supplier to the pharmacy for an inventory item</t>
   </si>
   <si>
-    <t>A value used to iniquely identify items sold by the company</t>
-  </si>
-  <si>
     <t>The commonly used name for an item</t>
   </si>
   <si>
     <t>Combination of Item Name and Store Name used to refrence store inventory details</t>
   </si>
   <si>
-    <t>The amount of an item held at a facility(store or warehouse)</t>
-  </si>
-  <si>
     <t>The tracker used to gauge when an item's threshold is to be adjusted</t>
   </si>
   <si>
@@ -507,6 +450,102 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>Inventory Information</t>
+  </si>
+  <si>
+    <t>Inventory Change</t>
+  </si>
+  <si>
+    <t>Item Shipments</t>
+  </si>
+  <si>
+    <t>Item Orders</t>
+  </si>
+  <si>
+    <t>Inventory item details presented to a user</t>
+  </si>
+  <si>
+    <t>Inventory item details sent to the system to be used for changes</t>
+  </si>
+  <si>
+    <t>Inventory sent from vendor to arrive at warehouse for restock in the form of a file</t>
+  </si>
+  <si>
+    <t>Inventory requests sent to vendors from the warehouse for in the form of a file</t>
+  </si>
+  <si>
+    <t>System, Vendor</t>
+  </si>
+  <si>
+    <t>System, Inventory, Inventory manager, 5. Manage Inventory, Corporate Employee</t>
+  </si>
+  <si>
+    <t>Item Number, Item Name, Quantity held, Restock Date, Restock Delay, Discount, Reorder level, Reorder Quantity</t>
+  </si>
+  <si>
+    <t>Item Number, Item Name, Quantity held, Restock Date, Restock Delay, Discount, Reorder level, Reorder QuantityHigh Threshold, Low Threshold, Percentage Change, Direction, Frequency, Reorder Quantity</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>The amount of an item being referenced</t>
+  </si>
+  <si>
+    <t>Item name, item Number, Dose, Vendor, Quantity</t>
+  </si>
+  <si>
+    <t>Item Name, Item Number, Dose, Vendor, Quantity</t>
+  </si>
+  <si>
+    <t>System, Sales Manager, Inventory</t>
+  </si>
+  <si>
+    <t>Sales Manager, Inventory</t>
+  </si>
+  <si>
+    <t>Vendor, Cashier, Inventory, Customer Accounts</t>
+  </si>
+  <si>
+    <t>System, Inventory Manager, Inventory Change</t>
+  </si>
+  <si>
+    <t>Cashier, Store Manager, Sales Manager, Inventory Manager, Inventory, Vendor, Second Cashier, System, Corporate Employee</t>
+  </si>
+  <si>
+    <t>A value used to uniquely identify items sold by the company</t>
+  </si>
+  <si>
+    <t>Store Manager, Cashier, System, Inventory Manager, System</t>
+  </si>
+  <si>
+    <t>Cashier, System, Inventory Manager</t>
+  </si>
+  <si>
+    <t>System, Store inventory</t>
+  </si>
+  <si>
+    <t>System, Store Inventory</t>
+  </si>
+  <si>
+    <t>System, Inventory Manager, Inventory Change, Inventory Information, Inventory, Vendor</t>
+  </si>
+  <si>
+    <t>Warehouse Inventory, Inventory Manager</t>
+  </si>
+  <si>
+    <t>Warehouse Inventory, Inventory Manager, Store Inventory</t>
+  </si>
+  <si>
+    <t>Warehouse Inventory, Vendor, Inventory Manager</t>
+  </si>
+  <si>
+    <t>Warehouse Inventory, Inventory Manager, Vendor</t>
+  </si>
+  <si>
+    <t>Inventory, Inventory Manager, System</t>
   </si>
 </sst>
 </file>
@@ -949,12 +988,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="111.140625" customWidth="1"/>
     <col min="3" max="3" width="99.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -970,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -988,90 +1027,90 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>142</v>
+        <v>46</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>121</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,6 +1144,9 @@
       <c r="C16" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C10">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1114,15 +1156,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" customWidth="1"/>
+    <col min="3" max="3" width="111.140625" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -1151,101 +1193,119 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
       </c>
       <c r="D4" s="1">
         <v>0.01</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>125</v>
+      <c r="C6" t="s">
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -1253,16 +1313,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -1270,95 +1333,113 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
         <v>111</v>
       </c>
-      <c r="B12" t="s">
-        <v>132</v>
+      <c r="C12" t="s">
+        <v>164</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1367,32 +1448,38 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1401,32 +1488,38 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -1435,15 +1528,18 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
@@ -1452,15 +1548,18 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1469,24 +1568,27 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,24 +1602,27 @@
       <c r="F24" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A3:B22">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="181.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1531,82 +1636,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D6">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1617,13 +1709,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
     <col min="3" max="3" width="106.85546875" customWidth="1"/>
     <col min="4" max="4" width="117.85546875" customWidth="1"/>
   </cols>
@@ -1639,108 +1731,111 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D9">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1750,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1783,89 +1878,92 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D8">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1897,77 +1995,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Work_In_Progress/DJ/Data Dictionary.xlsx
+++ b/Work_In_Progress/DJ/Data Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="639" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="639" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>Inventory, Inventory Manager, System</t>
+  </si>
+  <si>
+    <t>Inventory information, Inventory change, Item orders, Item shipments</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1617,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1712,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1972,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2068,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
